--- a/acervo separado/Acervo_Arma.xlsx
+++ b/acervo separado/Acervo_Arma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B11C2153-2B2F-4CCD-AABC-9CC8F7ECDDB3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9E9B9A-87F6-4022-8D97-3C0B84A8EB99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$S$7</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$S$7</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -101,9 +108,6 @@
     <t>S6 V4C</t>
   </si>
   <si>
-    <t>Metal</t>
-  </si>
-  <si>
     <t>1486</t>
   </si>
   <si>
@@ -113,9 +117,6 @@
     <t>Espingarda (miniatura)</t>
   </si>
   <si>
-    <t>Madeira e metal</t>
-  </si>
-  <si>
     <t>13,0 x 1,0 cm</t>
   </si>
   <si>
@@ -131,9 +132,6 @@
     <t>Espingarda (cenas de batalha)</t>
   </si>
   <si>
-    <t>Gravura/marfim e metal dourado</t>
-  </si>
-  <si>
     <t>7,5 x 62,7 x 5,8 cm</t>
   </si>
   <si>
@@ -158,9 +156,6 @@
     <t>Estojo de pistola (miniatura)</t>
   </si>
   <si>
-    <t>Couro, veludo e seda</t>
-  </si>
-  <si>
     <t>5,0 x 6,5 cm</t>
   </si>
   <si>
@@ -170,9 +165,6 @@
     <t>Pistola de pederneira</t>
   </si>
   <si>
-    <t>Talha e relevo/madeira e metal</t>
-  </si>
-  <si>
     <t>3,3 x 19,3 cm</t>
   </si>
   <si>
@@ -237,6 +229,21 @@
   </si>
   <si>
     <t>6,5 cm</t>
+  </si>
+  <si>
+    <t>mattec_160</t>
+  </si>
+  <si>
+    <t>mattec_132</t>
+  </si>
+  <si>
+    <t>mattec_186</t>
+  </si>
+  <si>
+    <t>mattec_78</t>
+  </si>
+  <si>
+    <t>mattec_283</t>
   </si>
 </sst>
 </file>
@@ -621,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,10 +682,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -708,19 +715,19 @@
         <v>16</v>
       </c>
       <c r="T1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="W1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="X1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -728,22 +735,22 @@
         <v>1486</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -772,10 +779,10 @@
         <v>1,0 ccm</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -783,22 +790,22 @@
         <v>1490</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -827,10 +834,10 @@
         <v>0,7 ccm</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="X3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -838,25 +845,25 @@
         <v>1484</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -865,7 +872,7 @@
         <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
         <v>22</v>
@@ -885,13 +892,13 @@
         <v>62,7 cm</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="X4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -899,25 +906,25 @@
         <v>1488</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -926,7 +933,7 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
         <v>22</v>
@@ -946,10 +953,10 @@
         <v>4,7 ccm</v>
       </c>
       <c r="W5" t="s">
+        <v>59</v>
+      </c>
+      <c r="X5" t="s">
         <v>64</v>
-      </c>
-      <c r="X5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -957,25 +964,25 @@
         <v>1488</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -984,7 +991,7 @@
         <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O6" t="s">
         <v>21</v>
@@ -1004,10 +1011,10 @@
         <v>6,5 ccm</v>
       </c>
       <c r="W6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1015,25 +1022,25 @@
         <v>1485</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -1042,7 +1049,7 @@
         <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
         <v>22</v>
@@ -1062,10 +1069,10 @@
         <v>19,3 cm</v>
       </c>
       <c r="W7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="X7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
